--- a/output.xlsx
+++ b/output.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Server</t>
   </si>
@@ -41,64 +41,70 @@
     <t>WINSERVER-1</t>
   </si>
   <si>
-    <t>07/19/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/19/2022 03:05:12	Code</t>
+    <t>07/20/2022</t>
+  </si>
+  <si>
+    <t>07/20/2022 21:23:53</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
   <si>
     <t>ansible</t>
   </si>
   <si>
-    <t>10.03MB</t>
+    <t>20.96MB</t>
   </si>
   <si>
     <t>C:\Program Files\Microsoft VS Code\Code.exe</t>
   </si>
   <si>
-    <t xml:space="preserve">07/19/2022 03:05:08	Code</t>
-  </si>
-  <si>
-    <t>33.89MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/19/2022 03:05:13	Code</t>
-  </si>
-  <si>
-    <t>130.07MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/19/2022 03:05:14	Code</t>
-  </si>
-  <si>
-    <t>11.9MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/19/2022 03:05:15	Code</t>
-  </si>
-  <si>
-    <t>176.31MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/19/2022 03:05:20	Code</t>
-  </si>
-  <si>
-    <t>44.45MB</t>
-  </si>
-  <si>
-    <t>57.73MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/19/2022 03:05:22	Code</t>
-  </si>
-  <si>
-    <t>41.86MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/19/2022 03:05:28	Code</t>
-  </si>
-  <si>
-    <t>21.33MB</t>
+    <t>07/20/2022 21:23:41</t>
+  </si>
+  <si>
+    <t>11.54MB</t>
+  </si>
+  <si>
+    <t>07/20/2022 21:23:47</t>
+  </si>
+  <si>
+    <t>30.61MB</t>
+  </si>
+  <si>
+    <t>07/20/2022 21:23:45</t>
+  </si>
+  <si>
+    <t>38.2MB</t>
+  </si>
+  <si>
+    <t>140.55MB</t>
+  </si>
+  <si>
+    <t>9.93MB</t>
+  </si>
+  <si>
+    <t>129.4MB</t>
+  </si>
+  <si>
+    <t>07/20/2022 21:23:40</t>
+  </si>
+  <si>
+    <t>31.98MB</t>
+  </si>
+  <si>
+    <t>48.87MB</t>
+  </si>
+  <si>
+    <t>07/20/2022 21:25:31</t>
+  </si>
+  <si>
+    <t>ImagingDevices</t>
+  </si>
+  <si>
+    <t>3.55MB</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Windows Photo Viewer\ImagingDevices.exe</t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -152,11 +158,11 @@
   <cols>
     <col min="1" max="1" width="13.690505027771" customWidth="1"/>
     <col min="2" max="2" width="11.8295488357544" customWidth="1"/>
-    <col min="3" max="3" width="24.5302257537842" customWidth="1"/>
-    <col min="4" max="4" width="13.6048460006714" customWidth="1"/>
-    <col min="5" max="5" width="10.4453420639038" customWidth="1"/>
-    <col min="6" max="6" width="41.8800392150879" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.0335102081299" customWidth="1"/>
+    <col min="4" max="4" width="15.0767583847046" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.173020362854" customWidth="1"/>
+    <col min="7" max="7" width="60.3658103942871" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -224,6 +230,9 @@
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
@@ -233,16 +242,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -253,16 +265,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -273,16 +288,19 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -293,16 +311,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>12</v>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -313,16 +334,19 @@
         <v>8</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>12</v>
+      <c r="G8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -333,16 +357,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -353,16 +380,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>12</v>
+      <c r="G10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -373,16 +403,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -393,16 +426,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -413,17 +449,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="G13" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
@@ -433,16 +472,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>12</v>
+      <c r="G14" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -453,16 +495,19 @@
         <v>8</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>12</v>
+      <c r="G15" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -473,16 +518,19 @@
         <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>12</v>
+      <c r="G16" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -493,16 +541,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -513,16 +564,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>12</v>
+      <c r="G18" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -533,16 +587,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -553,20 +610,69 @@
         <v>8</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>12</v>
+      <c r="E22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G20"/>
+  <autoFilter ref="A1:G22"/>
   <headerFooter/>
 </worksheet>
 </file>